--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/143.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/143.xlsx
@@ -479,13 +479,13 @@
         <v>-14.04267866857557</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.66892029956166</v>
+        <v>-8.694784323269158</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.330534174735187</v>
+        <v>-2.553014860278517</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.676834776073152</v>
+        <v>-9.567713615241244</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.82849859294394</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.28437636384837</v>
+        <v>-9.50366606973952</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.350434475054611</v>
+        <v>-2.529815299642979</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.787346904360161</v>
+        <v>-9.64786469323829</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-13.57348355064258</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.71965615642723</v>
+        <v>-10.01766987930569</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.156472008454439</v>
+        <v>-2.269710519086407</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.322635614993095</v>
+        <v>-9.139935712190686</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-13.29146218632358</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.38321334135443</v>
+        <v>-10.83574242237094</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.216892986069005</v>
+        <v>-2.387488875450575</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.081972904156487</v>
+        <v>-8.857534739894655</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-12.99576992434062</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.10567279676656</v>
+        <v>-11.60893455129476</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.226306351812206</v>
+        <v>-2.369971374248345</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.064088818474689</v>
+        <v>-8.790214118682499</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-12.71191468384491</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.81864033261844</v>
+        <v>-12.27319872057541</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.069499840676853</v>
+        <v>-2.137923398681592</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.60134137453388</v>
+        <v>-8.35096735834259</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-12.43180202659165</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.51385470581694</v>
+        <v>-13.05370944678775</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.9800794122678638</v>
+        <v>-1.954159835995125</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.464029302329857</v>
+        <v>-8.133006700633535</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-12.18648499210593</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.15637256007748</v>
+        <v>-13.66441300514291</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.9554266060168937</v>
+        <v>-1.944275147349622</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.157067169902748</v>
+        <v>-7.718635315692905</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-11.96888637226221</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.13635761238636</v>
+        <v>-14.67064812464945</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.8332623282007477</v>
+        <v>-1.852943242725741</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.032703385209192</v>
+        <v>-7.659994891264813</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-11.79282715734738</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.85877779088997</v>
+        <v>-15.36261560674319</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7323861348052484</v>
+        <v>-1.843765538433691</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.019532528550416</v>
+        <v>-7.634006670123987</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-11.67286026968738</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.69997134077371</v>
+        <v>-16.1598713882901</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6052729665149299</v>
+        <v>-1.724062613551789</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.636556485824245</v>
+        <v>-7.049566271269335</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-11.60021536476297</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.34775230077663</v>
+        <v>-16.7147362750253</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6097243494811168</v>
+        <v>-1.81371870341193</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.342189148730876</v>
+        <v>-6.684893267915897</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-11.60420701472083</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.42710793165421</v>
+        <v>-17.8024447951159</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.290547098502677</v>
+        <v>-1.466091878358419</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.966845918561432</v>
+        <v>-6.18839386724912</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-11.67167877418571</v>
       </c>
       <c r="E15" t="n">
-        <v>-20.20096776802296</v>
+        <v>-18.60063013016457</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.09502664786433988</v>
+        <v>-1.36977180635184</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.652342619697487</v>
+        <v>-5.874663014252838</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-11.81075803333368</v>
       </c>
       <c r="E16" t="n">
-        <v>-21.23296853952201</v>
+        <v>-19.58913827162341</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2084529320068704</v>
+        <v>-1.090198771469622</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.221841517655851</v>
+        <v>-5.454085877765229</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-12.01638714259354</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.21748352861413</v>
+        <v>-20.46873154574194</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3687419956981227</v>
+        <v>-0.8957257050586228</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.953658786245934</v>
+        <v>-5.058920901093412</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-12.26085794023654</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.97711203179392</v>
+        <v>-21.19413676929345</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5777998874748045</v>
+        <v>-0.6531646103099639</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.769829762045259</v>
+        <v>-4.844050026855004</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-12.5424660459168</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.76473187844931</v>
+        <v>-21.92183314584227</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8555269076563395</v>
+        <v>-0.3923790300056224</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.365185958116031</v>
+        <v>-4.506582828806672</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-12.81815151318856</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.34190604922681</v>
+        <v>-22.5096251742244</v>
       </c>
       <c r="F20" t="n">
-        <v>1.171732205889708</v>
+        <v>-0.0421992058979752</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.971631334693745</v>
+        <v>-4.209597031144958</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-13.07269977894602</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.19577294826134</v>
+        <v>-23.47243312520494</v>
       </c>
       <c r="F21" t="n">
-        <v>1.404068212118978</v>
+        <v>0.2842049962490974</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.022010516028707</v>
+        <v>-4.386330027205418</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-13.2804752125512</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.03129753101462</v>
+        <v>-24.3051297705444</v>
       </c>
       <c r="F22" t="n">
-        <v>1.797779943175365</v>
+        <v>0.778989305243609</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.933519641121481</v>
+        <v>-4.423760921029913</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-13.41379101165126</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.36660449909406</v>
+        <v>-24.62909880436291</v>
       </c>
       <c r="F23" t="n">
-        <v>1.988272949522479</v>
+        <v>0.9407054299446094</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.709916200887641</v>
+        <v>-4.235310313926108</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-13.47595695356043</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.93542578065853</v>
+        <v>-25.23177678107609</v>
       </c>
       <c r="F24" t="n">
-        <v>1.999689437600464</v>
+        <v>0.9997648080636357</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.743851449853395</v>
+        <v>-4.394722193326965</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-13.44437321191892</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.27071965643514</v>
+        <v>-25.50101998901619</v>
       </c>
       <c r="F25" t="n">
-        <v>2.214455573416139</v>
+        <v>1.252092760732222</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.614852989953868</v>
+        <v>-4.456151278260344</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-13.33180279755418</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.50207373995128</v>
+        <v>-25.68298990621334</v>
       </c>
       <c r="F26" t="n">
-        <v>2.198587702371967</v>
+        <v>1.21043305308985</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.747360187014978</v>
+        <v>-4.687898130861737</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-13.13881137956513</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.4868604840492</v>
+        <v>-25.70675243587107</v>
       </c>
       <c r="F27" t="n">
-        <v>2.332391037414407</v>
+        <v>1.372777608327253</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.672707876211456</v>
+        <v>-4.680055841459543</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-12.86797439681416</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.37405720276488</v>
+        <v>-25.57551519218561</v>
       </c>
       <c r="F28" t="n">
-        <v>2.305289970532034</v>
+        <v>1.319675228001212</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.492191204629737</v>
+        <v>-4.547849767363793</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-12.54047794194314</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.43663841034833</v>
+        <v>-25.6135090550323</v>
       </c>
       <c r="F29" t="n">
-        <v>2.328672823407357</v>
+        <v>1.375553176529699</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.69746542088516</v>
+        <v>-4.859250190454247</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-12.15022292291072</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.35018993468442</v>
+        <v>-25.62423165105967</v>
       </c>
       <c r="F30" t="n">
-        <v>2.269364691534338</v>
+        <v>1.380214036341354</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.992277896275147</v>
+        <v>-5.233624590213404</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-11.71943306355268</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.99872706489828</v>
+        <v>-25.29056122083544</v>
       </c>
       <c r="F31" t="n">
-        <v>2.293061759677862</v>
+        <v>1.44489001237948</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.138950965011005</v>
+        <v>-5.435874484512389</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-11.25023072268474</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.62465378810449</v>
+        <v>-24.90791248568031</v>
       </c>
       <c r="F32" t="n">
-        <v>2.368866193131456</v>
+        <v>1.456463608091566</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.481563438076134</v>
+        <v>-5.649697974523459</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-10.74780135375422</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.4364912116632</v>
+        <v>-24.83399334383592</v>
       </c>
       <c r="F33" t="n">
-        <v>2.266850969388726</v>
+        <v>1.317397167306752</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.508180089753363</v>
+        <v>-5.669336428786048</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-10.22858004228592</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.80837489052855</v>
+        <v>-24.21734587999063</v>
       </c>
       <c r="F34" t="n">
-        <v>2.12671095977089</v>
+        <v>1.138202818312047</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.560627854937318</v>
+        <v>-5.632992196097416</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-9.686039190066642</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.41099731467648</v>
+        <v>-23.8870663562024</v>
       </c>
       <c r="F35" t="n">
-        <v>1.98335024365399</v>
+        <v>1.047839744098454</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.637505857223933</v>
+        <v>-5.627833828777776</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-9.141848696212421</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.88225157211053</v>
+        <v>-23.37867914455534</v>
       </c>
       <c r="F36" t="n">
-        <v>1.939491029134208</v>
+        <v>1.001362069010326</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.529952589379153</v>
+        <v>-5.411391878198361</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-8.597284729104297</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.13710315587369</v>
+        <v>-22.71393056006954</v>
       </c>
       <c r="F37" t="n">
-        <v>1.94360201222651</v>
+        <v>0.9466755200404364</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.52574996016696</v>
+        <v>-5.443598943189007</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-8.062438846694263</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.60161487734425</v>
+        <v>-22.21973540470291</v>
       </c>
       <c r="F38" t="n">
-        <v>1.760912018373064</v>
+        <v>0.6755077435826061</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.314675853752652</v>
+        <v>-5.059654070052549</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.553279267626531</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.04625248310107</v>
+        <v>-21.86827253491677</v>
       </c>
       <c r="F39" t="n">
-        <v>1.770705060898675</v>
+        <v>0.6525045674896934</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.182247210508592</v>
+        <v>-4.790201385266984</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.065746616251007</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.43638683212779</v>
+        <v>-21.25399477788583</v>
       </c>
       <c r="F40" t="n">
-        <v>1.793668960083063</v>
+        <v>0.70428462522872</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.354620469722758</v>
+        <v>-4.949901295330359</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.619393665835535</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.77131094007095</v>
+        <v>-20.55554660588542</v>
       </c>
       <c r="F41" t="n">
-        <v>1.880313820289606</v>
+        <v>0.7625715574800845</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.191228530258017</v>
+        <v>-4.785265587095654</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.210507140126947</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.06153792611245</v>
+        <v>-19.92732554632804</v>
       </c>
       <c r="F42" t="n">
-        <v>1.820429627091551</v>
+        <v>0.6274720844563132</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.448269711949624</v>
+        <v>-4.960021645427013</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.843999756260721</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.41195022831737</v>
+        <v>-19.27899470960577</v>
       </c>
       <c r="F43" t="n">
-        <v>1.743027932691266</v>
+        <v>0.4378300777939111</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.608833714000553</v>
+        <v>-5.15918175625535</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.524245247657524</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.61316264733798</v>
+        <v>-18.64698997452712</v>
       </c>
       <c r="F44" t="n">
-        <v>1.729673783792706</v>
+        <v>0.3556104159478714</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.452996033275488</v>
+        <v>-4.81861168243353</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.239687501241745</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.12983410332998</v>
+        <v>-18.23218654359271</v>
       </c>
       <c r="F45" t="n">
-        <v>1.682122539871557</v>
+        <v>0.2233388803379129</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.419519014909194</v>
+        <v>-4.746499278381303</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.99929443923588</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.46288601196677</v>
+        <v>-17.46973010299911</v>
       </c>
       <c r="F46" t="n">
-        <v>1.651538920433284</v>
+        <v>0.1671729011469081</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.493254864513795</v>
+        <v>-4.666243461961522</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.791125693352145</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.99195587874988</v>
+        <v>-16.99010668069532</v>
       </c>
       <c r="F47" t="n">
-        <v>1.69458641217688</v>
+        <v>0.2187303897376253</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.515341579407787</v>
+        <v>-4.780565450375474</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.615416050664097</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.32278209590358</v>
+        <v>-16.44523122102837</v>
       </c>
       <c r="F48" t="n">
-        <v>1.701315855837527</v>
+        <v>0.147102400890542</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.517357794045413</v>
+        <v>-4.671650583035155</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.470522919284776</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.7897289857027</v>
+        <v>-15.85927211504407</v>
       </c>
       <c r="F49" t="n">
-        <v>1.580945223510698</v>
+        <v>0.03274113556806482</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.550245658783829</v>
+        <v>-4.800871612082991</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.347013321346941</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.26072139707992</v>
+        <v>-15.25143577101126</v>
       </c>
       <c r="F50" t="n">
-        <v>1.359475828640059</v>
+        <v>-0.267321353261455</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.49563766363099</v>
+        <v>-4.737714343174504</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.253569251077703</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.49903740235398</v>
+        <v>-14.49195128316273</v>
       </c>
       <c r="F51" t="n">
-        <v>1.403230304737108</v>
+        <v>-0.2978918803968853</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.410694802793871</v>
+        <v>-4.596841164597532</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.18296808048308</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.93981277877249</v>
+        <v>-13.98904974640635</v>
       </c>
       <c r="F52" t="n">
-        <v>1.309018093488047</v>
+        <v>-0.392876537513608</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.379220906762361</v>
+        <v>-4.543359107489081</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.143449373126022</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.34542222975813</v>
+        <v>-13.39081006035651</v>
       </c>
       <c r="F53" t="n">
-        <v>1.505978697438974</v>
+        <v>-0.2259627685844423</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.426457935415309</v>
+        <v>-4.573327388693792</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.139627211565679</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.64626707340427</v>
+        <v>-12.75579409562427</v>
       </c>
       <c r="F54" t="n">
-        <v>1.378512036971929</v>
+        <v>-0.3956128288075287</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.667565784548536</v>
+        <v>-4.768716916303712</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.171542181078187</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.01038701668448</v>
+        <v>-12.08714400489164</v>
       </c>
       <c r="F55" t="n">
-        <v>1.282375257205135</v>
+        <v>-0.4574477751290009</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.822853588554249</v>
+        <v>-4.972472425429495</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.2517718976159</v>
       </c>
       <c r="E56" t="n">
-        <v>-12.64841102771644</v>
+        <v>-11.74777842293126</v>
       </c>
       <c r="F56" t="n">
-        <v>1.296999359479343</v>
+        <v>-0.4448137028867353</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.025365328910068</v>
+        <v>-5.114366803628122</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.374502768238122</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.04154351409391</v>
+        <v>-11.26221109513732</v>
       </c>
       <c r="F57" t="n">
-        <v>1.179011526269707</v>
+        <v>-0.6152885781888504</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.240210018542792</v>
+        <v>-5.352057561719659</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.547506156322514</v>
       </c>
       <c r="E58" t="n">
-        <v>-11.59386531072393</v>
+        <v>-10.83931662104673</v>
       </c>
       <c r="F58" t="n">
-        <v>1.187338230877045</v>
+        <v>-0.5272821184867678</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.622479076915511</v>
+        <v>-5.72631413075324</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.767099803435278</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.03814942430402</v>
+        <v>-10.34023803672013</v>
       </c>
       <c r="F59" t="n">
-        <v>1.138883618059817</v>
+        <v>-0.569373872122917</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.776287450700108</v>
+        <v>-5.970865255533841</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.024030062323047</v>
       </c>
       <c r="E60" t="n">
-        <v>-10.74730391667508</v>
+        <v>-10.09103914443072</v>
       </c>
       <c r="F60" t="n">
-        <v>1.013171326173563</v>
+        <v>-0.6868380132188834</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.785871016380252</v>
+        <v>-5.942821542846864</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.315705763971277</v>
       </c>
       <c r="E61" t="n">
-        <v>-10.34949429482923</v>
+        <v>-9.665853517342823</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9800739845896796</v>
+        <v>-0.6283285118192096</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.970551040265639</v>
+        <v>-6.119266508244806</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.619936064652919</v>
       </c>
       <c r="E62" t="n">
-        <v>-9.967107405730939</v>
+        <v>-9.257098730321292</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7627941266283939</v>
+        <v>-0.8350821582957476</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.268230729977965</v>
+        <v>-6.415401306221808</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.929762413875157</v>
       </c>
       <c r="E63" t="n">
-        <v>-9.607893892662501</v>
+        <v>-8.938170233096846</v>
       </c>
       <c r="F63" t="n">
-        <v>0.7368713670017762</v>
+        <v>-0.7974548799286268</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.252428320448002</v>
+        <v>-6.351537052959868</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.227267233645634</v>
       </c>
       <c r="E64" t="n">
-        <v>-9.361549122392583</v>
+        <v>-8.685069834560597</v>
       </c>
       <c r="F64" t="n">
-        <v>0.6950021825139363</v>
+        <v>-0.7244521992831623</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.347399885261883</v>
+        <v>-6.513933977408638</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.496941170839779</v>
       </c>
       <c r="E65" t="n">
-        <v>-9.336071501062584</v>
+        <v>-8.63814702117585</v>
       </c>
       <c r="F65" t="n">
-        <v>0.5163184333300589</v>
+        <v>-0.9133217600779026</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.414929983319506</v>
+        <v>-6.713146457448342</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.732318869320844</v>
       </c>
       <c r="E66" t="n">
-        <v>-9.115112706002774</v>
+        <v>-8.458638456912945</v>
       </c>
       <c r="F66" t="n">
-        <v>0.4341642329982278</v>
+        <v>-0.9590269892983683</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.521200205485797</v>
+        <v>-6.782889154686217</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.915767514357874</v>
       </c>
       <c r="E67" t="n">
-        <v>-9.063607586623423</v>
+        <v>-8.513076252128842</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1578642738264409</v>
+        <v>-1.214012679443825</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.394244144829579</v>
+        <v>-6.643364483301943</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.048384116536134</v>
       </c>
       <c r="E68" t="n">
-        <v>-8.958096718021952</v>
+        <v>-8.377165056328884</v>
       </c>
       <c r="F68" t="n">
-        <v>0.03549051916482729</v>
+        <v>-1.235614979132673</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.217432594952068</v>
+        <v>-6.454350907175943</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.122776386645765</v>
       </c>
       <c r="E69" t="n">
-        <v>-8.826767828216598</v>
+        <v>-8.284484644512306</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.06102593738437728</v>
+        <v>-1.25538435642368</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.101212222626065</v>
+        <v>-6.276217034711419</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-7.138341162602358</v>
       </c>
       <c r="E70" t="n">
-        <v>-8.831454872633937</v>
+        <v>-8.257750162109501</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.3647542710095804</v>
+        <v>-1.52397294922169</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.107954758589555</v>
+        <v>-6.467809794497238</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-7.102708272215834</v>
       </c>
       <c r="E71" t="n">
-        <v>-8.698437075762</v>
+        <v>-8.118343321450801</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.3390540805312721</v>
+        <v>-1.479956627067807</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.915707383661649</v>
+        <v>-6.249639659942714</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-7.014269292036699</v>
       </c>
       <c r="E72" t="n">
-        <v>-8.80880518871775</v>
+        <v>-8.287823181736945</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.4094252083055497</v>
+        <v>-1.566208718189098</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.96198867420715</v>
+        <v>-6.391232915175982</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.887406507524595</v>
       </c>
       <c r="E73" t="n">
-        <v>-8.970063082819291</v>
+        <v>-8.464464531677514</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.4559945295135693</v>
+        <v>-1.495588836660828</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.812435298846114</v>
+        <v>-6.170431227750272</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-6.723221453977398</v>
       </c>
       <c r="E74" t="n">
-        <v>-9.314560847493629</v>
+        <v>-8.881205623432496</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.5205526748261206</v>
+        <v>-1.551257308343847</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.781275618082806</v>
+        <v>-6.229228759812464</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.529198299967858</v>
       </c>
       <c r="E75" t="n">
-        <v>-9.616102766544262</v>
+        <v>-9.202425273654244</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.5624349516168022</v>
+        <v>-1.569049747905753</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.672832073644789</v>
+        <v>-6.132633749446208</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-6.315471008984797</v>
       </c>
       <c r="E76" t="n">
-        <v>-9.853610232396015</v>
+        <v>-9.478293186832255</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.6282761426078426</v>
+        <v>-1.706728404589344</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.558994500435981</v>
+        <v>-6.013402147466609</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.081876586514022</v>
       </c>
       <c r="E77" t="n">
-        <v>-10.4898306889897</v>
+        <v>-10.21791665126988</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.5704998101673056</v>
+        <v>-1.529078947329963</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.510775549069904</v>
+        <v>-5.890635623719744</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.845686180302653</v>
       </c>
       <c r="E78" t="n">
-        <v>-11.25220857576624</v>
+        <v>-11.08386774582733</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.7524173581530892</v>
+        <v>-1.768785920059126</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.415463584382138</v>
+        <v>-5.753454474544138</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.6089439996854</v>
       </c>
       <c r="E79" t="n">
-        <v>-12.00186074418064</v>
+        <v>-11.73788064198292</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.7150388335399613</v>
+        <v>-1.714374309448912</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.222561594312146</v>
+        <v>-5.616927940510618</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.382797832722009</v>
       </c>
       <c r="E80" t="n">
-        <v>-12.41035368514533</v>
+        <v>-12.14206621531268</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.7994318176577275</v>
+        <v>-1.820644531615203</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.058776885762152</v>
+        <v>-5.420909982364296</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-5.176550181005485</v>
       </c>
       <c r="E81" t="n">
-        <v>-13.12358306705404</v>
+        <v>-12.91927768120891</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.811070874884022</v>
+        <v>-1.794538479748801</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.763479995167021</v>
+        <v>-5.136898656818732</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.988556236312711</v>
       </c>
       <c r="E82" t="n">
-        <v>-14.0869932639653</v>
+        <v>-13.8438561078916</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.821348332614777</v>
+        <v>-1.880738201658725</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.552261873421455</v>
+        <v>-4.955439339432409</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.831752607961056</v>
       </c>
       <c r="E83" t="n">
-        <v>-14.97654978054638</v>
+        <v>-14.78665902012998</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.8839295401982276</v>
+        <v>-1.973326967355412</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.399134299384627</v>
+        <v>-4.905164896520181</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-4.70060510067865</v>
       </c>
       <c r="E84" t="n">
-        <v>-15.95297372648231</v>
+        <v>-15.75584292259444</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.9071552854394497</v>
+        <v>-1.990176761112713</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.319009405993263</v>
+        <v>-4.766465040214935</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-4.599987158202683</v>
       </c>
       <c r="E85" t="n">
-        <v>-16.93607474686752</v>
+        <v>-16.75300507623166</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.8819787870748104</v>
+        <v>-2.000964818654296</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.048365321649102</v>
+        <v>-4.502589676439946</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-4.529461433631571</v>
       </c>
       <c r="E86" t="n">
-        <v>-18.11888575480042</v>
+        <v>-17.9615555515514</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9510275922620737</v>
+        <v>-2.038304066358898</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.893771409694</v>
+        <v>-4.34401570442096</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-4.481434174291961</v>
       </c>
       <c r="E87" t="n">
-        <v>-19.41237909095727</v>
+        <v>-19.15672569336688</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.7810240398622607</v>
+        <v>-1.836617141082108</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.66887183147883</v>
+        <v>-4.165986570379169</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.460508131346927</v>
       </c>
       <c r="E88" t="n">
-        <v>-20.83488397931649</v>
+        <v>-20.59894758980574</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7688089213109303</v>
+        <v>-1.842561046572252</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.644140471410809</v>
+        <v>-4.128162907469422</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.455230283515405</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.44310318348559</v>
+        <v>-22.2761501376479</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8583733650511783</v>
+        <v>-1.991472899094044</v>
       </c>
       <c r="G89" t="n">
-        <v>-3.579176464710164</v>
+        <v>-4.145274547283558</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.467260204207894</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.12050211587038</v>
+        <v>-24.00458286650974</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6446807980685254</v>
+        <v>-1.765106982960601</v>
       </c>
       <c r="G90" t="n">
-        <v>-3.561802978839194</v>
+        <v>-4.237575282317727</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.491859663196853</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.81715982573535</v>
+        <v>-25.78173205424563</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5994468917503618</v>
+        <v>-1.655485131266828</v>
       </c>
       <c r="G91" t="n">
-        <v>-3.466438644940061</v>
+        <v>-4.100498871564855</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-4.522093407547579</v>
       </c>
       <c r="E92" t="n">
-        <v>-27.81952280695461</v>
+        <v>-27.85289508689817</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.659802407850719</v>
+        <v>-1.751085126617112</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.732539700198144</v>
+        <v>-4.335544984482363</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.561119660086941</v>
       </c>
       <c r="E93" t="n">
-        <v>-29.63177245860918</v>
+        <v>-29.73533257408723</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.7905290517253538</v>
+        <v>-1.847444475532216</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.727669363541022</v>
+        <v>-4.297682044664091</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.598707066212905</v>
       </c>
       <c r="E94" t="n">
-        <v>-31.62783804216157</v>
+        <v>-31.78613707582089</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.5888552187514055</v>
+        <v>-1.554556568659962</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.87253569448472</v>
+        <v>-4.500311615745486</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.638287698926024</v>
       </c>
       <c r="E95" t="n">
-        <v>-33.48529541552862</v>
+        <v>-33.73607847646188</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.705638560099602</v>
+        <v>-1.694329993798229</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.772549777682459</v>
+        <v>-4.44960512683948</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.674629113054364</v>
       </c>
       <c r="E96" t="n">
-        <v>-35.68290390902655</v>
+        <v>-35.97964095293427</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.7264684139207882</v>
+        <v>-1.754921171349738</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.00564513747655</v>
+        <v>-4.715287228406628</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.702826755801659</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.00106632709109</v>
+        <v>-38.37705108009978</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.7385264248380179</v>
+        <v>-1.701426021938445</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.188243485210103</v>
+        <v>-4.898671114310685</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.723075971006183</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.26604781101254</v>
+        <v>-40.64708619291814</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.6959109790881995</v>
+        <v>-1.694853685911899</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.355589300133046</v>
+        <v>-5.0765824176269</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.724933132167718</v>
       </c>
       <c r="E99" t="n">
-        <v>-42.39750089825123</v>
+        <v>-42.75503859655593</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.9312320303653838</v>
+        <v>-1.89055742879002</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.61882314106879</v>
+        <v>-5.364534526327823</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.707596132593551</v>
       </c>
       <c r="E100" t="n">
-        <v>-44.77837544692764</v>
+        <v>-45.15117877034579</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.7942341734295623</v>
+        <v>-1.714164832603444</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.735069698000475</v>
+        <v>-5.574207756338066</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.66418118434139</v>
       </c>
       <c r="E101" t="n">
-        <v>-46.98605192131086</v>
+        <v>-47.42213034436307</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.9800532276621804</v>
+        <v>-1.806832152117182</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.229998022326246</v>
+        <v>-6.201695646936313</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.584075073900411</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.35608604323432</v>
+        <v>-49.82130793241221</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.117574776711671</v>
+        <v>-1.997835758275123</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.577886693436591</v>
+        <v>-6.595852516289319</v>
       </c>
     </row>
   </sheetData>
